--- a/biology/Botanique/Rubus_wahlbergii/Rubus_wahlbergii.xlsx
+++ b/biology/Botanique/Rubus_wahlbergii/Rubus_wahlbergii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus whalbergii est une espèce de plantes à fleurs de la famille des rosacées et du genre Rubus. C'est espèce est caractéristique du groupement végétal des Pruno-Rubetum vestiti en phytosociologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus wahlbergii a des turions arqués, rampants, glabres pourvus d'aiguillons larges et teintés de rouge à leur base. Il comporte des feuilles légèrement pédalées (qui qualifie une feuille à plusieurs segments, le médian étant libre et les latéraux s'insérant chacun sur celui qui le précède) à cinq folioles. Le foliole terminal est ovale, arrondi, à base large. Sa partie supérieure comporte de zéro à dix poils par cm². Sa face inférieure, quant à elle, est tomenteuse et de couleur vert grisâtre à gris blanchâtre.
 L'inflorescence de cette ronce est densément fleurie à son extrémité supérieure. Les fleurs, rose vif, sont réunies de manière pyramidale. Les sépales gris tomenteux sont réfléchis (se dit d'un organe végétal, qui se replie brusquement dans une direction opposée au sens originel). Les pétales fond dix à treize millimètres; ils sont de forme arrondie presque ovale. La floraison a lieu de juin à août.
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ronce, éparse à fréquente, dans les fourrés et lisières forestière, pousse sur des sols riches en nutriments. On la rencontre en Norvège, Suède, Danemark, Allemagne, Pologne et Pays-Bas.
 </t>
